--- a/data/unchecked/manual_collect/china/hebei/hebeiCaseStatistics_20200401.xlsx
+++ b/data/unchecked/manual_collect/china/hebei/hebeiCaseStatistics_20200401.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\疫情统计\4.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01569E69-0350-4B89-A29C-F5FEECB9C769}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435A05C4-E6BA-4F47-BEE5-3CBB434F05D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10290,14 +10290,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>累计无症状治愈人数</t>
-  </si>
-  <si>
     <t>累计无症状死亡人数</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>http://wsjkw.hebei.gov.cn/content/content_14/403425.jhtml</t>
+  </si>
+  <si>
+    <t>累计无症状感染治愈人数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -10741,8 +10742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
@@ -10853,10 +10854,10 @@
         <v>3297</v>
       </c>
       <c r="U1" s="14" t="s">
+        <v>3300</v>
+      </c>
+      <c r="V1" s="14" t="s">
         <v>3298</v>
-      </c>
-      <c r="V1" s="14" t="s">
-        <v>3299</v>
       </c>
       <c r="W1" s="14" t="s">
         <v>16</v>
@@ -10972,7 +10973,7 @@
       <c r="X2" s="16"/>
       <c r="Y2" s="16"/>
       <c r="Z2" s="16" t="s">
-        <v>3300</v>
+        <v>3299</v>
       </c>
       <c r="AA2" s="16"/>
       <c r="AB2" s="16"/>
@@ -11046,7 +11047,7 @@
       <c r="X3" s="16"/>
       <c r="Y3" s="16"/>
       <c r="Z3" s="16" t="s">
-        <v>3300</v>
+        <v>3299</v>
       </c>
       <c r="AA3" s="16"/>
       <c r="AB3" s="16"/>
@@ -11118,7 +11119,7 @@
       <c r="X4" s="16"/>
       <c r="Y4" s="16"/>
       <c r="Z4" s="16" t="s">
-        <v>3300</v>
+        <v>3299</v>
       </c>
       <c r="AA4" s="16"/>
       <c r="AB4" s="16"/>
@@ -11190,7 +11191,7 @@
       <c r="X5" s="16"/>
       <c r="Y5" s="16"/>
       <c r="Z5" s="16" t="s">
-        <v>3300</v>
+        <v>3299</v>
       </c>
       <c r="AA5" s="16"/>
       <c r="AB5" s="16"/>
@@ -11262,7 +11263,7 @@
       <c r="X6" s="16"/>
       <c r="Y6" s="16"/>
       <c r="Z6" s="16" t="s">
-        <v>3300</v>
+        <v>3299</v>
       </c>
       <c r="AA6" s="16"/>
       <c r="AB6" s="16"/>
@@ -11334,7 +11335,7 @@
       <c r="X7" s="16"/>
       <c r="Y7" s="16"/>
       <c r="Z7" s="16" t="s">
-        <v>3300</v>
+        <v>3299</v>
       </c>
       <c r="AA7" s="16"/>
       <c r="AB7" s="16"/>
@@ -11406,7 +11407,7 @@
       <c r="X8" s="16"/>
       <c r="Y8" s="16"/>
       <c r="Z8" s="16" t="s">
-        <v>3300</v>
+        <v>3299</v>
       </c>
       <c r="AA8" s="16"/>
       <c r="AB8" s="16"/>
@@ -11480,7 +11481,7 @@
       <c r="X9" s="16"/>
       <c r="Y9" s="16"/>
       <c r="Z9" s="16" t="s">
-        <v>3300</v>
+        <v>3299</v>
       </c>
       <c r="AA9" s="16"/>
       <c r="AB9" s="16"/>
@@ -11554,7 +11555,7 @@
       <c r="X10" s="16"/>
       <c r="Y10" s="16"/>
       <c r="Z10" s="16" t="s">
-        <v>3300</v>
+        <v>3299</v>
       </c>
       <c r="AA10" s="16"/>
       <c r="AB10" s="16"/>
@@ -11626,7 +11627,7 @@
       <c r="X11" s="16"/>
       <c r="Y11" s="16"/>
       <c r="Z11" s="16" t="s">
-        <v>3300</v>
+        <v>3299</v>
       </c>
       <c r="AA11" s="16"/>
       <c r="AB11" s="16"/>
@@ -11698,7 +11699,7 @@
       <c r="X12" s="16"/>
       <c r="Y12" s="16"/>
       <c r="Z12" s="16" t="s">
-        <v>3300</v>
+        <v>3299</v>
       </c>
       <c r="AA12" s="16"/>
       <c r="AB12" s="16"/>
@@ -11768,7 +11769,7 @@
       <c r="X13" s="16"/>
       <c r="Y13" s="16"/>
       <c r="Z13" s="16" t="s">
-        <v>3300</v>
+        <v>3299</v>
       </c>
       <c r="AA13" s="16"/>
       <c r="AB13" s="16"/>
@@ -11844,7 +11845,7 @@
       <c r="X14" s="16"/>
       <c r="Y14" s="16"/>
       <c r="Z14" s="16" t="s">
-        <v>3300</v>
+        <v>3299</v>
       </c>
       <c r="AA14" s="16"/>
       <c r="AB14" s="16"/>
@@ -11918,7 +11919,7 @@
       <c r="X15" s="16"/>
       <c r="Y15" s="16"/>
       <c r="Z15" s="16" t="s">
-        <v>3300</v>
+        <v>3299</v>
       </c>
       <c r="AA15" s="16"/>
       <c r="AB15" s="16"/>
@@ -11994,7 +11995,7 @@
       <c r="X16" s="16"/>
       <c r="Y16" s="16"/>
       <c r="Z16" s="16" t="s">
-        <v>3300</v>
+        <v>3299</v>
       </c>
       <c r="AA16" s="16"/>
       <c r="AB16" s="16"/>

--- a/data/unchecked/manual_collect/china/hebei/hebeiCaseStatistics_20200401.xlsx
+++ b/data/unchecked/manual_collect/china/hebei/hebeiCaseStatistics_20200401.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\疫情统计\4.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435A05C4-E6BA-4F47-BEE5-3CBB434F05D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E2340A-C67C-4C7C-A638-8C86D05BB933}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10286,19 +10286,16 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>http://wsjkw.hebei.gov.cn/content/content_14/403425.jhtml</t>
+  </si>
+  <si>
     <t>累计无症状感染人数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计无症状死亡人数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://wsjkw.hebei.gov.cn/content/content_14/403425.jhtml</t>
   </si>
   <si>
     <t>累计无症状感染治愈人数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计无症状感染死亡人数</t>
   </si>
 </sst>
 </file>
@@ -10742,8 +10739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
@@ -10767,7 +10764,9 @@
     <col min="17" max="17" width="6.7265625" style="12" customWidth="1"/>
     <col min="18" max="18" width="6.36328125" style="12" customWidth="1"/>
     <col min="19" max="19" width="6.26953125" style="12" customWidth="1"/>
-    <col min="20" max="22" width="10.90625" style="12" customWidth="1"/>
+    <col min="20" max="20" width="10.90625" style="12" customWidth="1"/>
+    <col min="21" max="21" width="15.26953125" style="12" customWidth="1"/>
+    <col min="22" max="22" width="11.08984375" style="12" customWidth="1"/>
     <col min="23" max="23" width="7.1796875" style="12" customWidth="1"/>
     <col min="24" max="24" width="10.90625" style="12"/>
     <col min="25" max="25" width="21.1796875" style="12" customWidth="1"/>
@@ -10851,13 +10850,13 @@
         <v>15</v>
       </c>
       <c r="T1" s="14" t="s">
-        <v>3297</v>
+        <v>3298</v>
       </c>
       <c r="U1" s="14" t="s">
+        <v>3299</v>
+      </c>
+      <c r="V1" s="14" t="s">
         <v>3300</v>
-      </c>
-      <c r="V1" s="14" t="s">
-        <v>3298</v>
       </c>
       <c r="W1" s="14" t="s">
         <v>16</v>
@@ -10973,7 +10972,7 @@
       <c r="X2" s="16"/>
       <c r="Y2" s="16"/>
       <c r="Z2" s="16" t="s">
-        <v>3299</v>
+        <v>3297</v>
       </c>
       <c r="AA2" s="16"/>
       <c r="AB2" s="16"/>
@@ -11047,7 +11046,7 @@
       <c r="X3" s="16"/>
       <c r="Y3" s="16"/>
       <c r="Z3" s="16" t="s">
-        <v>3299</v>
+        <v>3297</v>
       </c>
       <c r="AA3" s="16"/>
       <c r="AB3" s="16"/>
@@ -11119,7 +11118,7 @@
       <c r="X4" s="16"/>
       <c r="Y4" s="16"/>
       <c r="Z4" s="16" t="s">
-        <v>3299</v>
+        <v>3297</v>
       </c>
       <c r="AA4" s="16"/>
       <c r="AB4" s="16"/>
@@ -11191,7 +11190,7 @@
       <c r="X5" s="16"/>
       <c r="Y5" s="16"/>
       <c r="Z5" s="16" t="s">
-        <v>3299</v>
+        <v>3297</v>
       </c>
       <c r="AA5" s="16"/>
       <c r="AB5" s="16"/>
@@ -11263,7 +11262,7 @@
       <c r="X6" s="16"/>
       <c r="Y6" s="16"/>
       <c r="Z6" s="16" t="s">
-        <v>3299</v>
+        <v>3297</v>
       </c>
       <c r="AA6" s="16"/>
       <c r="AB6" s="16"/>
@@ -11335,7 +11334,7 @@
       <c r="X7" s="16"/>
       <c r="Y7" s="16"/>
       <c r="Z7" s="16" t="s">
-        <v>3299</v>
+        <v>3297</v>
       </c>
       <c r="AA7" s="16"/>
       <c r="AB7" s="16"/>
@@ -11407,7 +11406,7 @@
       <c r="X8" s="16"/>
       <c r="Y8" s="16"/>
       <c r="Z8" s="16" t="s">
-        <v>3299</v>
+        <v>3297</v>
       </c>
       <c r="AA8" s="16"/>
       <c r="AB8" s="16"/>
@@ -11481,7 +11480,7 @@
       <c r="X9" s="16"/>
       <c r="Y9" s="16"/>
       <c r="Z9" s="16" t="s">
-        <v>3299</v>
+        <v>3297</v>
       </c>
       <c r="AA9" s="16"/>
       <c r="AB9" s="16"/>
@@ -11555,7 +11554,7 @@
       <c r="X10" s="16"/>
       <c r="Y10" s="16"/>
       <c r="Z10" s="16" t="s">
-        <v>3299</v>
+        <v>3297</v>
       </c>
       <c r="AA10" s="16"/>
       <c r="AB10" s="16"/>
@@ -11627,7 +11626,7 @@
       <c r="X11" s="16"/>
       <c r="Y11" s="16"/>
       <c r="Z11" s="16" t="s">
-        <v>3299</v>
+        <v>3297</v>
       </c>
       <c r="AA11" s="16"/>
       <c r="AB11" s="16"/>
@@ -11699,7 +11698,7 @@
       <c r="X12" s="16"/>
       <c r="Y12" s="16"/>
       <c r="Z12" s="16" t="s">
-        <v>3299</v>
+        <v>3297</v>
       </c>
       <c r="AA12" s="16"/>
       <c r="AB12" s="16"/>
@@ -11769,7 +11768,7 @@
       <c r="X13" s="16"/>
       <c r="Y13" s="16"/>
       <c r="Z13" s="16" t="s">
-        <v>3299</v>
+        <v>3297</v>
       </c>
       <c r="AA13" s="16"/>
       <c r="AB13" s="16"/>
@@ -11845,7 +11844,7 @@
       <c r="X14" s="16"/>
       <c r="Y14" s="16"/>
       <c r="Z14" s="16" t="s">
-        <v>3299</v>
+        <v>3297</v>
       </c>
       <c r="AA14" s="16"/>
       <c r="AB14" s="16"/>
@@ -11919,7 +11918,7 @@
       <c r="X15" s="16"/>
       <c r="Y15" s="16"/>
       <c r="Z15" s="16" t="s">
-        <v>3299</v>
+        <v>3297</v>
       </c>
       <c r="AA15" s="16"/>
       <c r="AB15" s="16"/>
@@ -11995,7 +11994,7 @@
       <c r="X16" s="16"/>
       <c r="Y16" s="16"/>
       <c r="Z16" s="16" t="s">
-        <v>3299</v>
+        <v>3297</v>
       </c>
       <c r="AA16" s="16"/>
       <c r="AB16" s="16"/>
@@ -12227,7 +12226,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G16:G1048576" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>INDIRECT($F16)</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:S1048576 T2:X1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:X1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
